--- a/src/main/resources/templet/outWhouse.xlsx
+++ b/src/main/resources/templet/outWhouse.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>类别</t>
   </si>
@@ -46,6 +46,22 @@
   </si>
   <si>
     <t>出库单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货地址</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -94,12 +110,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -449,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -463,22 +479,22 @@
     <col min="6" max="6" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
+    <row r="1" spans="1:13" ht="64.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -505,6 +521,18 @@
       </c>
       <c r="I2" t="s">
         <v>8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
